--- a/2)UTN_PROGRA2_LABO2/1-Prog2/Tema8.7_MI_PARCIAL2024/BaseDato.xlsx
+++ b/2)UTN_PROGRA2_LABO2/1-Prog2/Tema8.7_MI_PARCIAL2024/BaseDato.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguels\Desktop\Programacion\5-UTN\UTN\2)UTN_PROGRA2_LABO2\1-Prog2\Tema8.7_MI_PARCIAL2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6FBFE8-1406-4AB1-9565-D25B319975D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE7F431-1AB6-422F-9C7C-4BC5B06BD795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4890" yWindow="4290" windowWidth="27045" windowHeight="24405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4005" yWindow="3090" windowWidth="24825" windowHeight="24405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
   <si>
     <t>codigo continente(PK)</t>
   </si>
@@ -336,16 +336,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -628,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D5:L46"/>
+  <dimension ref="D5:L224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39:G44"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,10 +652,10 @@
   </cols>
   <sheetData>
     <row r="5" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="5"/>
       <c r="G5" s="6" t="s">
         <v>7</v>
       </c>
@@ -660,705 +666,1806 @@
       <c r="L5" s="6"/>
     </row>
     <row r="6" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="7" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="E7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="4">
-        <v>2</v>
-      </c>
-      <c r="J7" s="4">
+      <c r="I7" s="3">
+        <v>2</v>
+      </c>
+      <c r="J7" s="3">
         <v>1</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="3">
         <v>1000</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="3">
         <v>10.5</v>
       </c>
     </row>
     <row r="8" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D8" s="2">
-        <v>2</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="4">
-        <v>2</v>
-      </c>
-      <c r="J8" s="4">
-        <v>2</v>
-      </c>
-      <c r="K8" s="4">
+      <c r="I8" s="3">
+        <v>2</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2</v>
+      </c>
+      <c r="K8" s="3">
         <v>2000</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="3">
         <v>11.6</v>
       </c>
     </row>
     <row r="9" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>3</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>3</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <v>3</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="3">
         <v>3000</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="3">
         <v>12.7</v>
       </c>
     </row>
     <row r="10" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>4</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="4" t="s">
+      <c r="E10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="4">
-        <v>5</v>
-      </c>
-      <c r="J10" s="4">
+      <c r="I10" s="3">
+        <v>5</v>
+      </c>
+      <c r="J10" s="3">
         <v>4</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <v>4000</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="3">
         <v>13.8</v>
       </c>
     </row>
     <row r="11" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D11" s="2">
-        <v>5</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="D11" s="1">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>4</v>
       </c>
-      <c r="J11" s="4">
-        <v>5</v>
-      </c>
-      <c r="K11" s="4">
+      <c r="J11" s="3">
+        <v>5</v>
+      </c>
+      <c r="K11" s="3">
         <v>5000</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="3">
         <v>14.9</v>
       </c>
     </row>
     <row r="12" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I12" s="4">
-        <v>2</v>
-      </c>
-      <c r="J12" s="4">
-        <v>5</v>
-      </c>
-      <c r="K12" s="4">
+      <c r="I12" s="3">
+        <v>2</v>
+      </c>
+      <c r="J12" s="3">
+        <v>5</v>
+      </c>
+      <c r="K12" s="3">
         <v>6000</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <v>1</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="3">
         <v>4</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="3">
         <v>7000</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="3">
         <v>17.100000000000001</v>
       </c>
     </row>
     <row r="14" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <v>4</v>
       </c>
-      <c r="J14" s="4">
-        <v>5</v>
-      </c>
-      <c r="K14" s="4">
+      <c r="J14" s="3">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>8000</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="3">
         <v>18.2</v>
       </c>
     </row>
     <row r="15" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D15">
-        <v>5</v>
-      </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="4">
-        <v>2</v>
-      </c>
-      <c r="J15" s="4">
+      <c r="I15" s="3">
+        <v>2</v>
+      </c>
+      <c r="J15" s="3">
         <v>4</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="3">
         <v>9000</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="3">
         <v>19.3</v>
       </c>
     </row>
     <row r="16" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="4">
-        <v>2</v>
-      </c>
-      <c r="J16" s="4">
-        <v>5</v>
-      </c>
-      <c r="K16" s="4">
+      <c r="I16" s="3">
+        <v>2</v>
+      </c>
+      <c r="J16" s="3">
+        <v>5</v>
+      </c>
+      <c r="K16" s="3">
         <v>10000</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="3">
         <v>20.399999999999999</v>
       </c>
     </row>
     <row r="17" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="G17" s="4" t="s">
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="3">
         <v>1</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="3">
         <v>3</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="3">
         <v>11000</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="3">
         <v>21.5</v>
       </c>
     </row>
     <row r="18" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D18" s="2">
+      <c r="D18" s="7">
+        <f>D7</f>
         <v>1</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I18" s="4">
-        <v>2</v>
-      </c>
-      <c r="J18" s="4">
-        <v>5</v>
-      </c>
-      <c r="K18" s="4">
+      <c r="I18" s="3">
+        <v>2</v>
+      </c>
+      <c r="J18" s="3">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3">
         <v>12000</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="3">
         <v>22.6</v>
       </c>
     </row>
     <row r="19" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G19" s="4" t="s">
+      <c r="D19" s="7" t="str">
+        <f>E7</f>
+        <v>Europa</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I19" s="4">
-        <v>2</v>
-      </c>
-      <c r="J19" s="4">
-        <v>2</v>
-      </c>
-      <c r="K19" s="4">
+      <c r="I19" s="3">
+        <v>2</v>
+      </c>
+      <c r="J19" s="3">
+        <v>2</v>
+      </c>
+      <c r="K19" s="3">
         <v>13000</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="3">
         <v>23.7</v>
       </c>
     </row>
     <row r="20" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="G20" s="4" t="s">
+      <c r="D20" s="7">
+        <f>D8</f>
+        <v>2</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="3">
         <v>3</v>
       </c>
-      <c r="J20" s="4">
-        <v>5</v>
-      </c>
-      <c r="K20" s="4">
+      <c r="J20" s="3">
+        <v>5</v>
+      </c>
+      <c r="K20" s="3">
         <v>14000</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20" s="3">
         <v>24.8</v>
       </c>
     </row>
     <row r="21" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="G21" s="4" t="s">
+      <c r="D21" s="7" t="str">
+        <f>E8</f>
+        <v>Asia</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="3">
         <v>4</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="3">
         <v>3</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="3">
         <v>15000</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="3">
         <v>25.9</v>
       </c>
     </row>
     <row r="22" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="G22" s="4" t="s">
+      <c r="D22" s="7">
+        <f>D9</f>
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I22" s="4">
-        <v>2</v>
-      </c>
-      <c r="J22" s="4">
-        <v>5</v>
-      </c>
-      <c r="K22" s="4">
+      <c r="I22" s="3">
+        <v>2</v>
+      </c>
+      <c r="J22" s="3">
+        <v>5</v>
+      </c>
+      <c r="K22" s="3">
         <v>16000</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="3">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="G23" s="4" t="s">
+      <c r="D23" s="7" t="str">
+        <f>E9</f>
+        <v>America</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I23" s="4">
-        <v>5</v>
-      </c>
-      <c r="J23" s="4">
+      <c r="I23" s="3">
+        <v>5</v>
+      </c>
+      <c r="J23" s="3">
         <v>4</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="3">
         <v>17000</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23" s="3">
         <v>28.1</v>
       </c>
     </row>
     <row r="24" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="G24" s="4" t="s">
+      <c r="D24" s="7">
+        <f>D10</f>
+        <v>4</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I24" s="4">
-        <v>5</v>
-      </c>
-      <c r="J24" s="4">
+      <c r="I24" s="3">
+        <v>5</v>
+      </c>
+      <c r="J24" s="3">
         <v>3</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="3">
         <v>18000</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L24" s="3">
         <v>29.2</v>
       </c>
     </row>
     <row r="25" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="G25" s="4" t="s">
+      <c r="D25" s="7" t="str">
+        <f>E10</f>
+        <v>Oceania</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I25" s="4">
-        <v>2</v>
-      </c>
-      <c r="J25" s="4">
-        <v>2</v>
-      </c>
-      <c r="K25" s="4">
+      <c r="I25" s="3">
+        <v>2</v>
+      </c>
+      <c r="J25" s="3">
+        <v>2</v>
+      </c>
+      <c r="K25" s="3">
         <v>19000</v>
       </c>
-      <c r="L25" s="4">
+      <c r="L25" s="3">
         <v>30.3</v>
       </c>
     </row>
     <row r="26" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="G26" s="4" t="s">
+      <c r="D26" s="7">
+        <f>D11</f>
+        <v>5</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="3">
         <v>3</v>
       </c>
-      <c r="J26" s="4">
-        <v>5</v>
-      </c>
-      <c r="K26" s="4">
+      <c r="J26" s="3">
+        <v>5</v>
+      </c>
+      <c r="K26" s="3">
         <v>20000</v>
       </c>
-      <c r="L26" s="4">
+      <c r="L26" s="3">
         <v>31.4</v>
       </c>
     </row>
     <row r="27" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="G27" s="4" t="s">
+      <c r="D27" s="7" t="str">
+        <f>E11</f>
+        <v>Africa</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H27" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I27" s="4">
-        <v>2</v>
-      </c>
-      <c r="J27" s="4">
-        <v>5</v>
-      </c>
-      <c r="K27" s="4">
+      <c r="I27" s="3">
+        <v>2</v>
+      </c>
+      <c r="J27" s="3">
+        <v>5</v>
+      </c>
+      <c r="K27" s="3">
         <v>21000</v>
       </c>
-      <c r="L27" s="4">
+      <c r="L27" s="3">
         <v>32.5</v>
       </c>
     </row>
     <row r="28" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I28" s="4">
-        <v>2</v>
-      </c>
-      <c r="J28" s="4">
-        <v>5</v>
-      </c>
-      <c r="K28" s="4">
+      <c r="I28" s="3">
+        <v>2</v>
+      </c>
+      <c r="J28" s="3">
+        <v>5</v>
+      </c>
+      <c r="K28" s="3">
         <v>22000</v>
       </c>
-      <c r="L28" s="4">
+      <c r="L28" s="3">
         <v>33.6</v>
       </c>
     </row>
     <row r="29" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I29" s="4">
-        <v>2</v>
-      </c>
-      <c r="J29" s="4">
+      <c r="I29" s="3">
+        <v>2</v>
+      </c>
+      <c r="J29" s="3">
         <v>3</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="3">
         <v>23000</v>
       </c>
-      <c r="L29" s="4">
+      <c r="L29" s="3">
         <v>34.700000000000003</v>
       </c>
     </row>
     <row r="30" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H30" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30" s="3">
         <v>1</v>
       </c>
-      <c r="J30" s="4">
-        <v>2</v>
-      </c>
-      <c r="K30" s="4">
+      <c r="J30" s="3">
+        <v>2</v>
+      </c>
+      <c r="K30" s="3">
         <v>24000</v>
       </c>
-      <c r="L30" s="4">
+      <c r="L30" s="3">
         <v>35.799999999999997</v>
       </c>
     </row>
     <row r="31" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="G31" s="4" t="s">
+      <c r="G31" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H31" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="I31" s="4">
-        <v>2</v>
-      </c>
-      <c r="J31" s="4">
-        <v>5</v>
-      </c>
-      <c r="K31" s="4">
+      <c r="I31" s="3">
+        <v>2</v>
+      </c>
+      <c r="J31" s="3">
+        <v>5</v>
+      </c>
+      <c r="K31" s="3">
         <v>25000</v>
       </c>
-      <c r="L31" s="4">
+      <c r="L31" s="3">
         <v>36.9</v>
       </c>
     </row>
     <row r="32" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="G32" s="4" t="s">
+      <c r="G32" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H32" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I32" s="4">
-        <v>2</v>
-      </c>
-      <c r="J32" s="4">
-        <v>2</v>
-      </c>
-      <c r="K32" s="4">
+      <c r="I32" s="3">
+        <v>2</v>
+      </c>
+      <c r="J32" s="3">
+        <v>2</v>
+      </c>
+      <c r="K32" s="3">
         <v>26000</v>
       </c>
-      <c r="L32" s="4">
+      <c r="L32" s="3">
         <v>38</v>
       </c>
     </row>
     <row r="33" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G33" s="4" t="s">
+      <c r="G33" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H33" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I33" s="3">
         <v>3</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J33" s="3">
         <v>1</v>
       </c>
-      <c r="K33" s="4">
+      <c r="K33" s="3">
         <v>27000</v>
       </c>
-      <c r="L33" s="4">
+      <c r="L33" s="3">
         <v>39.1</v>
       </c>
     </row>
     <row r="34" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G34" s="4" t="s">
+      <c r="G34" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="H34" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="I34" s="4">
-        <v>2</v>
-      </c>
-      <c r="J34" s="4">
+      <c r="I34" s="3">
+        <v>2</v>
+      </c>
+      <c r="J34" s="3">
         <v>3</v>
       </c>
-      <c r="K34" s="4">
+      <c r="K34" s="3">
         <v>28000</v>
       </c>
-      <c r="L34" s="4">
+      <c r="L34" s="3">
         <v>40.200000000000003</v>
       </c>
     </row>
     <row r="35" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G35" s="4" t="s">
+      <c r="G35" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="H35" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I35" s="4">
-        <v>2</v>
-      </c>
-      <c r="J35" s="4">
+      <c r="I35" s="3">
+        <v>2</v>
+      </c>
+      <c r="J35" s="3">
         <v>4</v>
       </c>
-      <c r="K35" s="4">
+      <c r="K35" s="3">
         <v>29000</v>
       </c>
-      <c r="L35" s="4">
+      <c r="L35" s="3">
         <v>41.3</v>
       </c>
     </row>
     <row r="36" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G36" s="4" t="s">
+      <c r="G36" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="H36" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="I36" s="4">
-        <v>2</v>
-      </c>
-      <c r="J36" s="4">
-        <v>5</v>
-      </c>
-      <c r="K36" s="4">
+      <c r="I36" s="3">
+        <v>2</v>
+      </c>
+      <c r="J36" s="3">
+        <v>5</v>
+      </c>
+      <c r="K36" s="3">
         <v>30000</v>
       </c>
-      <c r="L36" s="4">
+      <c r="L36" s="3">
         <v>42.4</v>
       </c>
     </row>
+    <row r="38" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <v>30</v>
+      </c>
+    </row>
     <row r="39" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G39" s="4" t="s">
-        <v>9</v>
+      <c r="G39" s="8" t="str">
+        <f>G7</f>
+        <v>a1</v>
       </c>
     </row>
     <row r="40" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G40" s="4" t="s">
-        <v>40</v>
+      <c r="G40" s="8" t="str">
+        <f>H7</f>
+        <v>China</v>
       </c>
     </row>
     <row r="41" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G41" s="4">
+      <c r="G41" s="8">
+        <f>I7</f>
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G42" s="4">
+      <c r="G42" s="8">
+        <f>J7</f>
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G43" s="4">
+      <c r="G43" s="8">
+        <f>K7</f>
         <v>1000</v>
       </c>
     </row>
     <row r="44" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G44" s="4">
+      <c r="G44" s="8">
+        <f>L7</f>
         <v>10.5</v>
       </c>
     </row>
     <row r="45" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G45" s="4"/>
+      <c r="G45" s="8" t="str">
+        <f>G8</f>
+        <v>a2</v>
+      </c>
     </row>
     <row r="46" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G46" s="4"/>
+      <c r="G46" s="8" t="str">
+        <f>H8</f>
+        <v>india</v>
+      </c>
+    </row>
+    <row r="47" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G47" s="8">
+        <f>I8</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G48" s="8">
+        <f>J8</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G49" s="8">
+        <f>K8</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="50" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G50" s="8">
+        <f>L8</f>
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="51" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G51" s="8" t="str">
+        <f>G9</f>
+        <v>a3</v>
+      </c>
+    </row>
+    <row r="52" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G52" s="8" t="str">
+        <f>H9</f>
+        <v>japon</v>
+      </c>
+    </row>
+    <row r="53" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G53" s="8">
+        <f>I9</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G54" s="8">
+        <f>J9</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G55" s="8">
+        <f>K9</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="56" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G56" s="8">
+        <f>L9</f>
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="57" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G57" s="8" t="str">
+        <f>G10</f>
+        <v>a4</v>
+      </c>
+    </row>
+    <row r="58" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G58" s="8" t="str">
+        <f>H10</f>
+        <v>core</v>
+      </c>
+    </row>
+    <row r="59" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G59" s="8">
+        <f>I10</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G60" s="8">
+        <f>J10</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G61" s="8">
+        <f>K10</f>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="62" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G62" s="8">
+        <f>L10</f>
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="63" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G63" s="8" t="str">
+        <f>G11</f>
+        <v>a5</v>
+      </c>
+    </row>
+    <row r="64" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G64" s="8" t="str">
+        <f>H11</f>
+        <v>indonesia</v>
+      </c>
+    </row>
+    <row r="65" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G65" s="8">
+        <f>I11</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G66" s="8">
+        <f>J11</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G67" s="8">
+        <f>K11</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="68" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G68" s="8">
+        <f>L11</f>
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="69" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G69" s="8" t="str">
+        <f>G12</f>
+        <v>a6</v>
+      </c>
+    </row>
+    <row r="70" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G70" s="8" t="str">
+        <f>H12</f>
+        <v>alemania</v>
+      </c>
+    </row>
+    <row r="71" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G71" s="8">
+        <f>I12</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G72" s="8">
+        <f>J12</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G73" s="8">
+        <f>K12</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="74" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G74" s="8">
+        <f>L12</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G75" s="8" t="str">
+        <f>G13</f>
+        <v>a7</v>
+      </c>
+    </row>
+    <row r="76" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G76" s="8" t="str">
+        <f>H13</f>
+        <v>francia</v>
+      </c>
+    </row>
+    <row r="77" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G77" s="8">
+        <f>I13</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G78" s="8">
+        <f>J13</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G79" s="8">
+        <f>K13</f>
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="80" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G80" s="8">
+        <f>L13</f>
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G81" s="8" t="str">
+        <f>G14</f>
+        <v>a8</v>
+      </c>
+    </row>
+    <row r="82" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G82" s="8" t="str">
+        <f>H14</f>
+        <v>italia</v>
+      </c>
+    </row>
+    <row r="83" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G83" s="8">
+        <f>I14</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G84" s="8">
+        <f>J14</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G85" s="8">
+        <f>K14</f>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="86" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G86" s="8">
+        <f>L14</f>
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="87" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G87" s="8" t="str">
+        <f>G15</f>
+        <v>a9</v>
+      </c>
+    </row>
+    <row r="88" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G88" s="8" t="str">
+        <f>H15</f>
+        <v>españa</v>
+      </c>
+    </row>
+    <row r="89" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G89" s="8">
+        <f>I15</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G90" s="8">
+        <f>J15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G91" s="8">
+        <f>K15</f>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="92" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G92" s="8">
+        <f>L15</f>
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="93" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G93" s="8" t="str">
+        <f>G16</f>
+        <v>a10</v>
+      </c>
+    </row>
+    <row r="94" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G94" s="8" t="str">
+        <f>H16</f>
+        <v>reino unido</v>
+      </c>
+    </row>
+    <row r="95" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G95" s="8">
+        <f>I16</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G96" s="8">
+        <f>J16</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G97" s="8">
+        <f>K16</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="98" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G98" s="8">
+        <f>L16</f>
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G99" s="8" t="str">
+        <f>G17</f>
+        <v>a11</v>
+      </c>
+    </row>
+    <row r="100" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G100" s="8" t="str">
+        <f>H17</f>
+        <v>paises bajos</v>
+      </c>
+    </row>
+    <row r="101" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G101" s="8">
+        <f>I17</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G102" s="8">
+        <f>J17</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G103" s="8">
+        <f>K17</f>
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="104" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G104" s="8">
+        <f>L17</f>
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="105" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G105" s="8" t="str">
+        <f>G18</f>
+        <v>a12</v>
+      </c>
+    </row>
+    <row r="106" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G106" s="8" t="str">
+        <f>H18</f>
+        <v>nigeria</v>
+      </c>
+    </row>
+    <row r="107" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G107" s="8">
+        <f>I18</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G108" s="8">
+        <f>J18</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G109" s="8">
+        <f>K18</f>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="110" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G110" s="8">
+        <f>L18</f>
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="111" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G111" s="8" t="str">
+        <f>G19</f>
+        <v>a13</v>
+      </c>
+    </row>
+    <row r="112" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G112" s="8" t="str">
+        <f>H19</f>
+        <v>sudafrica</v>
+      </c>
+    </row>
+    <row r="113" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G113" s="8">
+        <f>I19</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G114" s="8">
+        <f>J19</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G115" s="8">
+        <f>K19</f>
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="116" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G116" s="8">
+        <f>L19</f>
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="117" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G117" s="8" t="str">
+        <f>G20</f>
+        <v>a14</v>
+      </c>
+    </row>
+    <row r="118" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G118" s="8" t="str">
+        <f>H20</f>
+        <v>egipto</v>
+      </c>
+    </row>
+    <row r="119" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G119" s="8">
+        <f>I20</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G120" s="8">
+        <f>J20</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G121" s="8">
+        <f>K20</f>
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="122" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G122" s="8">
+        <f>L20</f>
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="123" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G123" s="8" t="str">
+        <f>G21</f>
+        <v>a15</v>
+      </c>
+    </row>
+    <row r="124" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G124" s="8" t="str">
+        <f>H21</f>
+        <v>kenia</v>
+      </c>
+    </row>
+    <row r="125" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G125" s="8">
+        <f>I21</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G126" s="8">
+        <f>J21</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G127" s="8">
+        <f>K21</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="128" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G128" s="8">
+        <f>L21</f>
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="129" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G129" s="8" t="str">
+        <f>G22</f>
+        <v>a16</v>
+      </c>
+    </row>
+    <row r="130" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G130" s="8" t="str">
+        <f>H22</f>
+        <v>marruecos</v>
+      </c>
+    </row>
+    <row r="131" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G131" s="8">
+        <f>I22</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G132" s="8">
+        <f>J22</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G133" s="8">
+        <f>K22</f>
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="134" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G134" s="8">
+        <f>L22</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="135" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G135" s="8" t="str">
+        <f>G23</f>
+        <v>a17</v>
+      </c>
+    </row>
+    <row r="136" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G136" s="8" t="str">
+        <f>H23</f>
+        <v>etiopia</v>
+      </c>
+    </row>
+    <row r="137" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G137" s="8">
+        <f>I23</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G138" s="8">
+        <f>J23</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G139" s="8">
+        <f>K23</f>
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="140" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G140" s="8">
+        <f>L23</f>
+        <v>28.1</v>
+      </c>
+    </row>
+    <row r="141" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G141" s="8" t="str">
+        <f>G24</f>
+        <v>a18</v>
+      </c>
+    </row>
+    <row r="142" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G142" s="8" t="str">
+        <f>H24</f>
+        <v>estados unidos</v>
+      </c>
+    </row>
+    <row r="143" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G143" s="8">
+        <f>I24</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G144" s="8">
+        <f>J24</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G145" s="8">
+        <f>K24</f>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="146" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G146" s="8">
+        <f>L24</f>
+        <v>29.2</v>
+      </c>
+    </row>
+    <row r="147" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G147" s="8" t="str">
+        <f>G25</f>
+        <v>a19</v>
+      </c>
+    </row>
+    <row r="148" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G148" s="8" t="str">
+        <f>H25</f>
+        <v>canda</v>
+      </c>
+    </row>
+    <row r="149" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G149" s="8">
+        <f>I25</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G150" s="8">
+        <f>J25</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G151" s="8">
+        <f>K25</f>
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="152" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G152" s="8">
+        <f>L25</f>
+        <v>30.3</v>
+      </c>
+    </row>
+    <row r="153" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G153" s="8" t="str">
+        <f>G26</f>
+        <v>a20</v>
+      </c>
+    </row>
+    <row r="154" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G154" s="8" t="str">
+        <f>H26</f>
+        <v>mexico</v>
+      </c>
+    </row>
+    <row r="155" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G155" s="8">
+        <f>I26</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G156" s="8">
+        <f>J26</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G157" s="8">
+        <f>K26</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="158" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G158" s="8">
+        <f>L26</f>
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="159" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G159" s="8" t="str">
+        <f>G27</f>
+        <v>a21</v>
+      </c>
+    </row>
+    <row r="160" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G160" s="8" t="str">
+        <f>H27</f>
+        <v>brasil</v>
+      </c>
+    </row>
+    <row r="161" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G161" s="8">
+        <f>I27</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G162" s="8">
+        <f>J27</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G163" s="8">
+        <f>K27</f>
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="164" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G164" s="8">
+        <f>L27</f>
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="165" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G165" s="8" t="str">
+        <f>G28</f>
+        <v>a22</v>
+      </c>
+    </row>
+    <row r="166" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G166" s="8" t="str">
+        <f>H28</f>
+        <v>argentina</v>
+      </c>
+    </row>
+    <row r="167" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G167" s="8">
+        <f>I28</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G168" s="8">
+        <f>J28</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G169" s="8">
+        <f>K28</f>
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="170" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G170" s="8">
+        <f>L28</f>
+        <v>33.6</v>
+      </c>
+    </row>
+    <row r="171" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G171" s="8" t="str">
+        <f>G29</f>
+        <v>a23</v>
+      </c>
+    </row>
+    <row r="172" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G172" s="8" t="str">
+        <f>H29</f>
+        <v>chile</v>
+      </c>
+    </row>
+    <row r="173" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G173" s="8">
+        <f>I29</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G174" s="8">
+        <f>J29</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G175" s="8">
+        <f>K29</f>
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="176" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G176" s="8">
+        <f>L29</f>
+        <v>34.700000000000003</v>
+      </c>
+    </row>
+    <row r="177" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G177" s="8" t="str">
+        <f>G30</f>
+        <v>a24</v>
+      </c>
+    </row>
+    <row r="178" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G178" s="8" t="str">
+        <f>H30</f>
+        <v>australia</v>
+      </c>
+    </row>
+    <row r="179" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G179" s="8">
+        <f>I30</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G180" s="8">
+        <f>J30</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G181" s="8">
+        <f>K30</f>
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="182" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G182" s="8">
+        <f>L30</f>
+        <v>35.799999999999997</v>
+      </c>
+    </row>
+    <row r="183" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G183" s="8" t="str">
+        <f>G31</f>
+        <v>a25</v>
+      </c>
+    </row>
+    <row r="184" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G184" s="8" t="str">
+        <f>H31</f>
+        <v>nueva zelanda</v>
+      </c>
+    </row>
+    <row r="185" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G185" s="8">
+        <f>I31</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G186" s="8">
+        <f>J31</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G187" s="8">
+        <f>K31</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="188" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G188" s="8">
+        <f>L31</f>
+        <v>36.9</v>
+      </c>
+    </row>
+    <row r="189" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G189" s="8" t="str">
+        <f>G32</f>
+        <v>a26</v>
+      </c>
+    </row>
+    <row r="190" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G190" s="8" t="str">
+        <f>H32</f>
+        <v>fiyi</v>
+      </c>
+    </row>
+    <row r="191" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G191" s="8">
+        <f>I32</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G192" s="8">
+        <f>J32</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G193" s="8">
+        <f>K32</f>
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="194" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G194" s="8">
+        <f>L32</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="195" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G195" s="8" t="str">
+        <f>G33</f>
+        <v>a27</v>
+      </c>
+    </row>
+    <row r="196" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G196" s="8" t="str">
+        <f>H33</f>
+        <v>samoa</v>
+      </c>
+    </row>
+    <row r="197" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G197" s="8">
+        <f>I33</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G198" s="8">
+        <f>J33</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G199" s="8">
+        <f>K33</f>
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="200" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G200" s="8">
+        <f>L33</f>
+        <v>39.1</v>
+      </c>
+    </row>
+    <row r="201" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G201" s="8" t="str">
+        <f>G34</f>
+        <v>a28</v>
+      </c>
+    </row>
+    <row r="202" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G202" s="8" t="str">
+        <f>H34</f>
+        <v>pupua</v>
+      </c>
+    </row>
+    <row r="203" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G203" s="8">
+        <f>I34</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G204" s="8">
+        <f>J34</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G205" s="8">
+        <f>K34</f>
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="206" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G206" s="8">
+        <f>L34</f>
+        <v>40.200000000000003</v>
+      </c>
+    </row>
+    <row r="207" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G207" s="8" t="str">
+        <f>G35</f>
+        <v>a29</v>
+      </c>
+    </row>
+    <row r="208" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G208" s="8" t="str">
+        <f>H35</f>
+        <v>uruguay</v>
+      </c>
+    </row>
+    <row r="209" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G209" s="8">
+        <f>I35</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G210" s="8">
+        <f>J35</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G211" s="8">
+        <f>K35</f>
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="212" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G212" s="8">
+        <f>L35</f>
+        <v>41.3</v>
+      </c>
+    </row>
+    <row r="213" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G213" s="8" t="str">
+        <f>G36</f>
+        <v>a30</v>
+      </c>
+    </row>
+    <row r="214" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G214" s="8" t="str">
+        <f>H36</f>
+        <v>colombia</v>
+      </c>
+    </row>
+    <row r="215" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G215" s="8">
+        <f>I36</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G216" s="8">
+        <f>J36</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G217" s="8">
+        <f>K36</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="218" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G218" s="8">
+        <f>L36</f>
+        <v>42.4</v>
+      </c>
+    </row>
+    <row r="219" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G219" s="3"/>
+    </row>
+    <row r="220" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G220" s="3"/>
+    </row>
+    <row r="221" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G221" s="3"/>
+    </row>
+    <row r="222" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G222" s="3"/>
+    </row>
+    <row r="223" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G223" s="3"/>
+    </row>
+    <row r="224" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G224" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
